--- a/var_tvar_ifrs17_1.xlsx
+++ b/var_tvar_ifrs17_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE5BA01-A33F-408A-B66A-E98003F5B745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F695F5-20F0-4964-BAD0-4728EECA2B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -436,140 +436,516 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-590.86762868121116</v>
+        <v>-676.11343964841433</v>
       </c>
       <c r="D2">
-        <v>1696.3975003788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E2">
+        <f>A2*5</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>B2/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>C2/$D$2</f>
+        <v>-0.35914487362522629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>35.264036510493902</v>
+        <v>20.998559863239009</v>
       </c>
       <c r="C3">
-        <v>-251.23757701076099</v>
+        <v>-338.81755660451728</v>
       </c>
       <c r="D3">
-        <v>1696.3975003788</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">A3*5</f>
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G21" si="1">B3/$D$2</f>
+        <v>1.1154230468065227E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>-0.17997658589957108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66.325967366636235</v>
+        <v>39.236676550417243</v>
       </c>
       <c r="C4">
-        <v>-179.29865331723019</v>
+        <v>-279.5854290508401</v>
       </c>
       <c r="D4">
-        <v>1696.3975003788</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.0842140408422111E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-0.14851305667897047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>97.225570787532959</v>
+        <v>56.655873199194339</v>
       </c>
       <c r="C5">
-        <v>-122.3072455426008</v>
+        <v>-235.7543340645596</v>
       </c>
       <c r="D5">
-        <v>1696.3975003788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3.0095048000868735E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-0.12523040594821611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>129.48784397733161</v>
+        <v>73.780078481789062</v>
       </c>
       <c r="C6">
-        <v>-71.046445774476567</v>
+        <v>-199.68453274880761</v>
       </c>
       <c r="D6">
-        <v>1696.3975003788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.9191259052889844E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-0.10607047881828192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>164.51256463183279</v>
+        <v>90.899558834785893</v>
       </c>
       <c r="C7">
-        <v>-20.32815449243579</v>
+        <v>-166.81538801772831</v>
       </c>
       <c r="D7">
-        <v>1696.3975003788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.8284960268330561E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-8.8610709290920728E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>204.14455218637011</v>
+        <v>108.2200810778411</v>
       </c>
       <c r="C8">
-        <v>32.793608813536132</v>
+        <v>-136.40970770137599</v>
       </c>
       <c r="D8">
-        <v>1696.3975003788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5.7485452977571405E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-7.2459508065895656E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>251.45728506664159</v>
+        <v>125.9258793298557</v>
       </c>
       <c r="C9">
-        <v>93.611787293817628</v>
+        <v>-107.6816035796238</v>
       </c>
       <c r="D9">
-        <v>1696.3975003788</v>
+        <v>1882.5646397892069</v>
       </c>
       <c r="E9">
-        <f>C9/D9</f>
-        <v>5.5182695843936591E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6.6890600550085638E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-5.7199418975425478E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>312.42622474325049</v>
+        <v>144.2199680394834</v>
       </c>
       <c r="C10">
-        <v>168.79155114000949</v>
+        <v>-79.487967340685543</v>
       </c>
       <c r="D10">
-        <v>1696.3975003788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>7.6608242283586023E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-4.2223234018453626E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>404.35065012247878</v>
+        <v>163.2761319926914</v>
       </c>
       <c r="C11">
-        <v>281.53118551039569</v>
+        <v>-51.335358828492922</v>
       </c>
       <c r="D11">
-        <v>1696.3975003788</v>
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>8.6730690963670518E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-2.7268842590308616E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>183.29797611730419</v>
+      </c>
+      <c r="C12">
+        <v>-22.407012713309321</v>
+      </c>
+      <c r="D12">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>9.7366099544835966E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-1.1902386903335367E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>204.56702471492531</v>
+      </c>
+      <c r="C13">
+        <v>6.5915403014223637</v>
+      </c>
+      <c r="D13">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.10866401099397624</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>3.5013620048448516E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>227.43031175608081</v>
+      </c>
+      <c r="C14">
+        <v>36.849506148084231</v>
+      </c>
+      <c r="D14">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.12080876637603608</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.9574098742346672E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>252.37600302857891</v>
+      </c>
+      <c r="C15">
+        <v>69.299702815974115</v>
+      </c>
+      <c r="D15">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.13405967460264087</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>3.6811327139201815E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>280.02246485379442</v>
+      </c>
+      <c r="C16">
+        <v>104.2670648772507</v>
+      </c>
+      <c r="D16">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.14874520584066048</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>5.5385649275196E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>311.41275342436518</v>
+      </c>
+      <c r="C17">
+        <v>142.64722868533499</v>
+      </c>
+      <c r="D17">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.1654194213799928</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>7.5772818457541719E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>348.1654013232029</v>
+      </c>
+      <c r="C18">
+        <v>187.77058986847629</v>
+      </c>
+      <c r="D18">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.18494206996376358</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>9.9741908405068733E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>392.85302219492752</v>
+      </c>
+      <c r="C19">
+        <v>242.6996033014463</v>
+      </c>
+      <c r="D19">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.20867969890208699</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.12891966531817026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>451.12477411152912</v>
+      </c>
+      <c r="C20">
+        <v>313.54369280250711</v>
+      </c>
+      <c r="D20">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.2396330859385748</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.16655135562177295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>539.54498840267843</v>
+      </c>
+      <c r="C21">
+        <v>420.97263451425067</v>
+      </c>
+      <c r="D21">
+        <v>1882.5646397892069</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.28660104253476892</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.22361656307397099</v>
       </c>
     </row>
   </sheetData>

--- a/var_tvar_ifrs17_1.xlsx
+++ b/var_tvar_ifrs17_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F695F5-20F0-4964-BAD0-4728EECA2B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D527035-6430-46DC-86E6-48F8C90285D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>TVar</t>
+    <t>Tvar - media</t>
   </si>
   <si>
-    <t>Var</t>
+    <t>Var - media</t>
   </si>
   <si>
-    <t>ibnr_mean</t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Percentil</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,13 +99,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -412,12 +427,12 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +442,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -454,7 +472,7 @@
         <v>-0.35914487362522629</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,7 +498,7 @@
         <v>-0.17997658589957108</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -506,7 +524,7 @@
         <v>-0.14851305667897047</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -532,7 +550,7 @@
         <v>-0.12523040594821611</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -558,7 +576,7 @@
         <v>-0.10607047881828192</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -584,7 +602,7 @@
         <v>-8.8610709290920728E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -610,7 +628,7 @@
         <v>-7.2459508065895656E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -636,7 +654,7 @@
         <v>-5.7199418975425478E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -662,7 +680,7 @@
         <v>-4.2223234018453626E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -688,7 +706,7 @@
         <v>-2.7268842590308616E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -714,7 +732,7 @@
         <v>-1.1902386903335367E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -740,7 +758,7 @@
         <v>3.5013620048448516E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -766,7 +784,7 @@
         <v>1.9574098742346672E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -792,7 +810,7 @@
         <v>3.6811327139201815E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -818,7 +836,7 @@
         <v>5.5385649275196E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -836,15 +854,15 @@
         <v>75</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f>B17/$D$2</f>
         <v>0.1654194213799928</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f>C17/$D$2</f>
         <v>7.5772818457541719E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -870,7 +888,7 @@
         <v>9.9741908405068733E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -896,7 +914,7 @@
         <v>0.12891966531817026</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -922,7 +940,7 @@
         <v>0.16655135562177295</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
